--- a/REGULAR/TREASURY/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/TREASURY/DIMAPILIS ARIEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6837286-BCEF-49AF-AA3C-68E7197AD02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0B009-8FF7-439D-B333-89BC69327FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -173,9 +165,6 @@
     <t>DIMAPILIS AREIL M.</t>
   </si>
   <si>
-    <t>RCC1</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -183,9 +172,6 @@
   </si>
   <si>
     <t>3/17/97</t>
-  </si>
-  <si>
-    <t>CDDO</t>
   </si>
   <si>
     <t>2018</t>
@@ -262,6 +248,27 @@
   </si>
   <si>
     <t>12/26-27, 29</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>CITY MARKET/EEO</t>
+  </si>
+  <si>
+    <t>RCCIII</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/18,20/2023</t>
   </si>
 </sst>
 </file>
@@ -954,7 +961,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1283,12 +1290,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A68" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="3576" topLeftCell="A78" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1326,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
@@ -1334,14 +1341,14 @@
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
@@ -1356,14 +1363,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1455,7 +1462,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>155.86099999999999</v>
+        <v>156.61099999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1465,7 +1472,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>331.815</v>
+        <v>333.565</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1492,7 +1499,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -1633,7 +1640,7 @@
         <v>43282</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -1651,7 +1658,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1659,7 +1666,7 @@
         <v>43313</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -1677,7 +1684,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1745,7 +1752,7 @@
         <v>43435</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="13">
         <v>1.25</v>
@@ -1766,7 +1773,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1967,7 +1974,7 @@
         <v>43739</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -1991,7 +1998,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -2009,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2037,7 +2044,7 @@
         <v>43800</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -2053,13 +2060,13 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
       <c r="B38" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39">
@@ -2078,7 +2085,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2099,7 +2106,7 @@
         <v>43831</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -2115,13 +2122,13 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -2137,13 +2144,13 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -2161,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2249,7 +2256,7 @@
         <v>43983</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -2273,7 +2280,7 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -2414,7 +2421,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2655,7 +2662,7 @@
         <v>44531</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -2676,7 +2683,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2817,7 +2824,7 @@
         <v>44743</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -2835,7 +2842,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -2923,7 +2930,7 @@
         <v>44896</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -2941,14 +2948,18 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -2961,7 +2972,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="48" t="s">
+        <v>69</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2977,15 +2990,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>44927</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -2993,15 +3010,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>44958</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -3009,24 +3030,36 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="A85" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>1</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>45017</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -3035,13 +3068,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>2</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45017</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3057,7 +3096,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45047</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3073,7 +3114,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45078</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3089,7 +3132,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45108</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3105,7 +3150,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45139</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3121,7 +3168,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45170</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3137,7 +3186,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45200</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3153,7 +3204,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45231</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3169,7 +3222,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45261</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3185,7 +3240,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45292</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3201,7 +3258,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45323</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3217,7 +3276,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45352</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3233,7 +3294,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45383</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3249,7 +3312,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45413</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3265,7 +3330,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45444</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3281,7 +3348,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45474</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3297,7 +3366,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45505</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3313,7 +3384,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45536</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3329,7 +3402,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45566</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3345,7 +3420,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45597</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3361,7 +3438,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45627</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3377,7 +3456,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45658</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3393,7 +3474,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45689</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3409,7 +3492,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45717</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3425,7 +3510,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45748</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3441,7 +3528,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45778</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3457,7 +3546,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45809</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3473,7 +3564,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45839</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3489,7 +3582,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45870</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3505,7 +3600,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45901</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3521,7 +3618,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45931</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3537,7 +3636,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45962</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3553,7 +3654,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45992</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3569,7 +3672,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46023</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3585,7 +3690,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46054</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3601,7 +3708,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>46082</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3617,7 +3726,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>46113</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3633,7 +3744,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>46143</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3649,7 +3762,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>46174</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3729,20 +3844,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/DIMAPILIS ARIEL.xlsx
+++ b/REGULAR/TREASURY/DIMAPILIS ARIEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0B009-8FF7-439D-B333-89BC69327FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E711F6-E27C-44BF-B0E8-D4B81083927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>3/18,20/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
@@ -1293,9 +1296,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3920,7 +3923,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,6 +4017,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4035,6 +4041,10 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>490.17599999999999</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
